--- a/public/sheet.xlsx
+++ b/public/sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemal\Desktop\NodeJS\React\assignment-exceljs\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8C7CC949-05E4-430A-B509-62A4FF6319F2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{95FFF7C0-E7E5-4FDC-8C2A-75D9B5BE6C41}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5760" xr2:uid="{74EF40AB-17F6-4FA7-85CE-5DBEF9504BFD}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>8967703377</v>
+        <v>8967603377</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.8">
